--- a/db/database.xlsx
+++ b/db/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>user</t>
   </si>
@@ -97,6 +97,45 @@
   </si>
   <si>
     <t>DATABASE VER 0.1</t>
+  </si>
+  <si>
+    <t>TABELS</t>
+  </si>
+  <si>
+    <t>NAMA TABEL</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>INT25</t>
+  </si>
+  <si>
+    <t>VARCHAR60</t>
+  </si>
+  <si>
+    <t>VARCHAR30</t>
+  </si>
+  <si>
+    <t>INT11</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>VARCHAR100</t>
+  </si>
+  <si>
+    <t>INT15</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>UTF8_general_ci</t>
   </si>
 </sst>
 </file>
@@ -270,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -287,6 +326,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,67 +626,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E27"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1">
+    <row r="1" spans="2:9">
+      <c r="B1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="23.25">
+    <row r="4" spans="2:9" ht="23.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -652,8 +745,11 @@
         <v>8</v>
       </c>
       <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1">
       <c r="D11" s="8">
         <v>1</v>
       </c>
@@ -661,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:9">
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
@@ -672,7 +768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -682,8 +778,11 @@
       <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -693,8 +792,14 @@
       <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -704,29 +809,47 @@
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="20" spans="2:5">
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="20" spans="2:9">
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
@@ -737,8 +860,11 @@
         <v>21</v>
       </c>
       <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
@@ -748,8 +874,14 @@
       <c r="E23" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="D24" s="8">
         <v>2</v>
       </c>
@@ -757,7 +889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:9">
       <c r="D25" s="10">
         <v>3</v>
       </c>
@@ -765,15 +897,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:9">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:9">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/db/database.xlsx
+++ b/db/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>user</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>UTF8_general_ci</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
   </si>
 </sst>
 </file>
@@ -628,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,6 +656,9 @@
       <c r="G1" t="s">
         <v>29</v>
       </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
       <c r="I1" t="s">
         <v>30</v>
       </c>
@@ -733,6 +739,9 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4" t="s">
@@ -862,6 +871,9 @@
       <c r="E22" s="14"/>
       <c r="G22" t="s">
         <v>34</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9">

--- a/db/database.xlsx
+++ b/db/database.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>OwnerFn</t>
   </si>
   <si>
@@ -36,9 +33,6 @@
     <t>Partnership</t>
   </si>
   <si>
-    <t>*UserID</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -72,15 +66,9 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>^UserID</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
-    <t>PostID</t>
-  </si>
-  <si>
     <t>PostCat</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>Blog</t>
   </si>
   <si>
-    <t>------------</t>
-  </si>
-  <si>
     <t>DATABASE VER 0.1</t>
   </si>
   <si>
@@ -139,6 +124,30 @@
   </si>
   <si>
     <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>²Username</t>
+  </si>
+  <si>
+    <t>*UID</t>
+  </si>
+  <si>
+    <t>*CID</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Primerykey</t>
+  </si>
+  <si>
+    <t>²</t>
+  </si>
+  <si>
+    <t>Foreginkey</t>
+  </si>
+  <si>
+    <t>*PID</t>
   </si>
 </sst>
 </file>
@@ -342,6 +351,377 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="1943100"/>
+          <a:ext cx="466725" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="4438650"/>
+          <a:ext cx="466725" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="247651" y="962025"/>
+          <a:ext cx="276225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-614362" y="1814512"/>
+          <a:ext cx="1743075" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="2705100"/>
+          <a:ext cx="257175" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="971550"/>
+          <a:ext cx="276225" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="214313" y="2586037"/>
+          <a:ext cx="3248025" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1552576" y="4229099"/>
+          <a:ext cx="257175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,21 +1026,21 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickBot="1"/>
@@ -671,91 +1051,102 @@
     </row>
     <row r="4" spans="2:9" ht="23.25">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1">
@@ -763,155 +1154,171 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8">
         <v>3</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="10">
         <v>5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="3" t="s">
-        <v>16</v>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:9">
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="C22" s="12"/>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="D24" s="8">
+      <c r="E24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="D25" s="8">
         <v>2</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="D25" s="10">
+      <c r="E25" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="D26" s="10">
         <v>3</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
       <c r="D27" s="5"/>
@@ -923,6 +1330,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/db/database.xlsx
+++ b/db/database.xlsx
@@ -1012,7 +1012,7 @@
   <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,9 +1268,6 @@
       <c r="G22" t="s">
         <v>27</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22" t="s">
         <v>34</v>
       </c>
@@ -1285,6 +1282,9 @@
       <c r="E23" s="14"/>
       <c r="G23" t="s">
         <v>29</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9">

--- a/db/database.xlsx
+++ b/db/database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>user</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Banned</t>
-  </si>
-  <si>
     <t>etc</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>²Username</t>
   </si>
   <si>
-    <t>*UID</t>
-  </si>
-  <si>
     <t>*CID</t>
   </si>
   <si>
@@ -148,6 +142,30 @@
   </si>
   <si>
     <t>*PID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TINYINT1</t>
+  </si>
+  <si>
+    <t>verCode</t>
+  </si>
+  <si>
+    <t>*uid</t>
+  </si>
+  <si>
+    <t>²username</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>userEmail</t>
+  </si>
+  <si>
+    <t>uid</t>
   </si>
 </sst>
 </file>
@@ -178,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -233,21 +251,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -317,11 +320,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -333,10 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +368,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,13 +435,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -505,7 +533,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -543,13 +571,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -640,7 +668,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -678,13 +706,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -701,6 +729,54 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85723</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552453</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1543049" y="2200274"/>
+          <a:ext cx="542928" cy="466730"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1009,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1025,56 +1101,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="23.25">
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>21</v>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1082,16 +1158,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -1101,10 +1177,10 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -1114,10 +1190,10 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -1127,202 +1203,251 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="17"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="8">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="10">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="20" spans="2:9">
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
+      <c r="I21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="12"/>
+        <v>11</v>
+      </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="14"/>
+        <v>12</v>
+      </c>
       <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="26" spans="2:9">
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="D26" s="10">
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="9">
         <v>3</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E33" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
